--- a/BLACK_SUNRISE_YCbCr/GLCM_All_Data_0_45_90_135_Degree/All_Data_0_45_90_135_Degree_m.xlsx
+++ b/BLACK_SUNRISE_YCbCr/GLCM_All_Data_0_45_90_135_Degree/All_Data_0_45_90_135_Degree_m.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4TH YEAR\Project_1\MATRICES_WORKSPACES\BLACK_SUNRISE_YCbCr\GLCM_All_Data_0_45_90_135_Degree\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70F79B0-8E00-45B0-BFB9-B27D628C485E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +336,2019 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A400"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A355" sqref="A355"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>